--- a/Codigos/database/funcionarios.xlsx
+++ b/Codigos/database/funcionarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,57 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>e870624a-ee94-485b-ae66-496dd6bcf32d</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rogerinho</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>roger@email.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>32632890-9dce-4b3d-ad4e-0feadc676c74</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Funcionario</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>funca@email.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>590e214f-2f26-48aa-89e5-58d526d50ee8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>funcionario@email.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>email.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Codigos/database/funcionarios.xlsx
+++ b/Codigos/database/funcionarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6d5d7774-99fb-4240-9cdc-94e45394819b</t>
+          <t>e1156849-0df0-4f1e-90b4-55bf1e1bb753</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2525fd57-cc43-4e54-ab24-14f2a69753af</t>
+          <t>57a5aaed-c559-421f-998f-75dfeae4188c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,57 +481,6 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>base@empresa.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>e870624a-ee94-485b-ae66-496dd6bcf32d</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rogerinho</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>roger@email.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>32632890-9dce-4b3d-ad4e-0feadc676c74</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Funcionario</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>funca@email.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>590e214f-2f26-48aa-89e5-58d526d50ee8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>funcionario@email.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>email.com</t>
         </is>
       </c>
     </row>

--- a/Codigos/database/funcionarios.xlsx
+++ b/Codigos/database/funcionarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>e1156849-0df0-4f1e-90b4-55bf1e1bb753</t>
+          <t>f7c02fe7-58f0-4057-b4e8-c12b05363a78</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>57a5aaed-c559-421f-998f-75dfeae4188c</t>
+          <t>373b0a71-4790-413c-ba3f-d8e398c19fb4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,6 +481,23 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>base@empresa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>012e5f18-cbb2-4be4-b88a-465df4adfe4c</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rud@gmail.com</t>
         </is>
       </c>
     </row>
